--- a/DataDriven/TGM-13Sep.xlsx
+++ b/DataDriven/TGM-13Sep.xlsx
@@ -7,19 +7,20 @@
     <sheet state="visible" name="PD1-5" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="PD06-14" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="PD15-20" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Sheet6" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_83B1A59B_0EAA_4D84_AA24_33FA119B4DBF_.wvu.FilterData">'Post Data'!$B$1:$B$1000</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D8EB53D8_E7C5_4D25_AFD6_364121BE998A_.wvu.FilterData">'Post Data'!$B$1:$B$1000</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{83B1A59B-0EAA-4D84-AA24-33FA119B4DBF}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D8EB53D8-E7C5-4D25-AFD6-364121BE998A}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="2166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="2166">
   <si>
     <t>Id</t>
   </si>
@@ -8514,6 +8515,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -20324,7 +20329,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{83B1A59B-0EAA-4D84-AA24-33FA119B4DBF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D8EB53D8-E7C5-4D25-AFD6-364121BE998A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$B$1000">
         <filterColumn colId="0">
           <filters>
@@ -22235,4 +22240,139 @@
   </hyperlinks>
   <drawing r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="18" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="18" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="18" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="18" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="18" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="18" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="18" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="18" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="18" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>